--- a/InputData/trans/BRASC/BAU Rng Anxiety Shadow Costs.xlsx
+++ b/InputData/trans/BRASC/BAU Rng Anxiety Shadow Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BRASC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\trans\BRASC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB37FF9-DC7A-43A7-A458-56F2E308DCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC3F3014-4ADD-4A2C-B582-3CA1E4CA7FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="260" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1110" windowWidth="13035" windowHeight="16890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Source:</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>BRAaCTSC BAU Range Anxiety Shadow Cost</t>
+  </si>
+  <si>
+    <t>California</t>
   </si>
 </sst>
 </file>
@@ -263,7 +266,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -278,6 +281,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -560,7 +564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,12 +574,18 @@
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="10">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,58 +593,58 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>21</v>
       </c>

--- a/InputData/trans/BRASC/BAU Rng Anxiety Shadow Costs.xlsx
+++ b/InputData/trans/BRASC/BAU Rng Anxiety Shadow Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\trans\BRASC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BRASC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC3F3014-4ADD-4A2C-B582-3CA1E4CA7FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB37FF9-DC7A-43A7-A458-56F2E308DCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1110" windowWidth="13035" windowHeight="16890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="260" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Source:</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>BRAaCTSC BAU Range Anxiety Shadow Cost</t>
-  </si>
-  <si>
-    <t>California</t>
   </si>
 </sst>
 </file>
@@ -266,7 +263,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -281,7 +278,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -564,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,18 +570,12 @@
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="10">
-        <v>45258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,58 +583,58 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>21</v>
       </c>
